--- a/data/ROV Field Log Master.xlsx
+++ b/data/ROV Field Log Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamescookuniversity-my.sharepoint.com/personal/benjamin_cresswell_jcu_edu_au/Documents/Ben PhD/Data &amp; analysis/GeoWrangling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C7853A4F-A32C-CC4C-B0DE-A953149137B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDBFD273-2D2B-D94A-A506-7A5CA77685D8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C7853A4F-A32C-CC4C-B0DE-A953149137B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E53882-ED04-A742-847F-B265FD6C9359}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1631,10 +1631,10 @@
   <dimension ref="A1:T728"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C696" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C505" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T726" sqref="T726:T728"/>
+      <selection pane="bottomRight" activeCell="F520" sqref="F520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,10 +3022,10 @@
         <v>2</v>
       </c>
       <c r="K28" s="16">
-        <v>-17.39866</v>
+        <v>-17.40091</v>
       </c>
       <c r="L28" s="16">
-        <v>151.87669</v>
+        <v>151.87454</v>
       </c>
       <c r="M28">
         <v>5</v>
@@ -3069,10 +3069,10 @@
         <v>2</v>
       </c>
       <c r="K29" s="16">
-        <v>-17.39866</v>
+        <v>-17.40091</v>
       </c>
       <c r="L29" s="16">
-        <v>151.87669</v>
+        <v>151.87454</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -3116,10 +3116,10 @@
         <v>2</v>
       </c>
       <c r="K30" s="16">
-        <v>-17.39866</v>
+        <v>-17.40091</v>
       </c>
       <c r="L30" s="16">
-        <v>151.87669</v>
+        <v>151.87454</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -3163,10 +3163,10 @@
         <v>2</v>
       </c>
       <c r="K31" s="16">
-        <v>-17.39866</v>
+        <v>-17.40091</v>
       </c>
       <c r="L31" s="16">
-        <v>151.87669</v>
+        <v>151.87454</v>
       </c>
       <c r="M31">
         <v>8</v>
@@ -3210,10 +3210,10 @@
         <v>2</v>
       </c>
       <c r="K32" s="16">
-        <v>-17.39866</v>
+        <v>-17.40091</v>
       </c>
       <c r="L32" s="16">
-        <v>151.87669</v>
+        <v>151.87454</v>
       </c>
       <c r="M32">
         <v>9</v>
@@ -3257,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="K33" s="16">
-        <v>-17.39866</v>
+        <v>-17.40091</v>
       </c>
       <c r="L33" s="16">
-        <v>151.87669</v>
+        <v>151.87454</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -3730,10 +3730,10 @@
         <v>2</v>
       </c>
       <c r="K43" s="16">
-        <v>-17.115580000000001</v>
+        <v>-17.11619</v>
       </c>
       <c r="L43" s="16">
-        <v>151.83301</v>
+        <v>151.83479</v>
       </c>
       <c r="M43">
         <v>10</v>
@@ -3777,10 +3777,10 @@
         <v>2</v>
       </c>
       <c r="K44" s="16">
-        <v>-17.115580000000001</v>
+        <v>-17.11619</v>
       </c>
       <c r="L44" s="16">
-        <v>151.83301</v>
+        <v>151.83479</v>
       </c>
       <c r="M44">
         <v>11</v>
@@ -3824,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="K45" s="16">
-        <v>-17.115580000000001</v>
+        <v>-17.11619</v>
       </c>
       <c r="L45" s="16">
-        <v>151.83301</v>
+        <v>151.83479</v>
       </c>
       <c r="M45">
         <v>12</v>
@@ -4870,10 +4870,10 @@
         <v>2</v>
       </c>
       <c r="K67" s="16">
-        <v>-16.981210000000001</v>
+        <v>-16.9711</v>
       </c>
       <c r="L67" s="16">
-        <v>149.16060999999999</v>
+        <v>149.12769</v>
       </c>
       <c r="M67">
         <v>4</v>
@@ -4917,10 +4917,10 @@
         <v>2</v>
       </c>
       <c r="K68" s="16">
-        <v>-16.981210000000001</v>
+        <v>-16.9711</v>
       </c>
       <c r="L68" s="16">
-        <v>149.16060999999999</v>
+        <v>149.12769</v>
       </c>
       <c r="M68">
         <v>5</v>
@@ -4964,10 +4964,10 @@
         <v>2</v>
       </c>
       <c r="K69" s="16">
-        <v>-16.981210000000001</v>
+        <v>-16.9711</v>
       </c>
       <c r="L69" s="16">
-        <v>149.16060999999999</v>
+        <v>149.12769</v>
       </c>
       <c r="M69">
         <v>6</v>
@@ -5011,10 +5011,10 @@
         <v>2</v>
       </c>
       <c r="K70" s="16">
-        <v>-16.981210000000001</v>
+        <v>-16.9711</v>
       </c>
       <c r="L70" s="16">
-        <v>149.16060999999999</v>
+        <v>149.12769</v>
       </c>
       <c r="M70">
         <v>7</v>
@@ -5058,10 +5058,10 @@
         <v>2</v>
       </c>
       <c r="K71" s="16">
-        <v>-16.981210000000001</v>
+        <v>-16.9711</v>
       </c>
       <c r="L71" s="16">
-        <v>149.16060999999999</v>
+        <v>149.12769</v>
       </c>
       <c r="M71">
         <v>8</v>
@@ -5105,10 +5105,10 @@
         <v>2</v>
       </c>
       <c r="K72" s="16">
-        <v>-16.981210000000001</v>
+        <v>-16.9711</v>
       </c>
       <c r="L72" s="16">
-        <v>149.16060999999999</v>
+        <v>149.12769</v>
       </c>
       <c r="M72">
         <v>9</v>
@@ -5390,10 +5390,10 @@
         <v>2</v>
       </c>
       <c r="K78" s="16">
-        <v>-17.86412</v>
+        <v>-17.86224</v>
       </c>
       <c r="L78" s="16">
-        <v>148.46803</v>
+        <v>148.46677</v>
       </c>
       <c r="M78">
         <v>6</v>
@@ -5437,10 +5437,10 @@
         <v>2</v>
       </c>
       <c r="K79" s="16">
-        <v>-17.86412</v>
+        <v>-17.86224</v>
       </c>
       <c r="L79" s="16">
-        <v>148.46803</v>
+        <v>148.46677</v>
       </c>
       <c r="M79">
         <v>7</v>
@@ -13019,10 +13019,10 @@
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L234" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M234">
         <v>16</v>
@@ -13068,10 +13068,10 @@
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L235" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M235">
         <v>17</v>
@@ -13117,10 +13117,10 @@
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L236" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M236">
         <v>18</v>
@@ -13166,10 +13166,10 @@
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
       <c r="K237" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L237" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M237">
         <v>19</v>
@@ -13215,10 +13215,10 @@
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
       <c r="K238" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L238" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M238">
         <v>20</v>
@@ -13264,10 +13264,10 @@
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
       <c r="K239" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L239" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M239">
         <v>21</v>
@@ -13313,10 +13313,10 @@
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
       <c r="K240" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L240" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M240">
         <v>22</v>
@@ -13362,10 +13362,10 @@
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
       <c r="K241" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L241" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M241">
         <v>23</v>
@@ -13411,10 +13411,10 @@
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
       <c r="K242" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L242" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M242">
         <v>24</v>
@@ -13460,10 +13460,10 @@
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
       <c r="K243" s="16">
-        <v>-13.80092</v>
+        <v>-13.80025</v>
       </c>
       <c r="L243" s="16">
-        <v>146.55271999999999</v>
+        <v>146.55141</v>
       </c>
       <c r="M243">
         <v>25</v>
@@ -14835,10 +14835,10 @@
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
       <c r="K271" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L271" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M271">
         <v>13</v>
@@ -14884,10 +14884,10 @@
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
       <c r="K272" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L272" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M272">
         <v>14</v>
@@ -14933,10 +14933,10 @@
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
       <c r="K273" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L273" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M273">
         <v>15</v>
@@ -14982,10 +14982,10 @@
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
       <c r="K274" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L274" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M274">
         <v>16</v>
@@ -15031,10 +15031,10 @@
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
       <c r="K275" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L275" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M275">
         <v>17</v>
@@ -15080,10 +15080,10 @@
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
       <c r="K276" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L276" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M276">
         <v>18</v>
@@ -15129,10 +15129,10 @@
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
       <c r="K277" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L277" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M277">
         <v>19</v>
@@ -15178,10 +15178,10 @@
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
       <c r="K278" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L278" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M278">
         <v>20</v>
@@ -15227,10 +15227,10 @@
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
       <c r="K279" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L279" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M279">
         <v>21</v>
@@ -15276,10 +15276,10 @@
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
       <c r="K280" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L280" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M280">
         <v>22</v>
@@ -15325,10 +15325,10 @@
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
       <c r="K281" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L281" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M281">
         <v>23</v>
@@ -15374,10 +15374,10 @@
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
       <c r="K282" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L282" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M282">
         <v>24</v>
@@ -15423,10 +15423,10 @@
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
       <c r="K283" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L283" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M283">
         <v>25</v>
@@ -15472,10 +15472,10 @@
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
       <c r="K284" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L284" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M284">
         <v>26</v>
@@ -15521,10 +15521,10 @@
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
       <c r="K285" s="16">
-        <v>-13.894640000000001</v>
+        <v>-13.89452</v>
       </c>
       <c r="L285" s="16">
-        <v>146.55423999999999</v>
+        <v>146.55418</v>
       </c>
       <c r="M285">
         <v>27</v>
@@ -29124,10 +29124,10 @@
         <v>70</v>
       </c>
       <c r="K531">
-        <v>-17.136209487915</v>
+        <v>-17.139551162719702</v>
       </c>
       <c r="L531">
-        <v>151.83271789550699</v>
+        <v>151.83528137207</v>
       </c>
       <c r="M531">
         <v>3</v>
@@ -29180,10 +29180,10 @@
         <v>279</v>
       </c>
       <c r="K532">
-        <v>-17.136209487915</v>
+        <v>-17.139551162719702</v>
       </c>
       <c r="L532">
-        <v>151.83271789550699</v>
+        <v>151.83528137207</v>
       </c>
       <c r="M532">
         <v>4</v>
@@ -29239,10 +29239,10 @@
         <v>71</v>
       </c>
       <c r="K533">
-        <v>-17.132863998413001</v>
+        <v>-17.139551162719702</v>
       </c>
       <c r="L533">
-        <v>151.833236694335</v>
+        <v>151.83528137207</v>
       </c>
       <c r="M533">
         <v>5</v>
